--- a/tests/polybench-c-3.2/results/exec-time-table.xlsx
+++ b/tests/polybench-c-3.2/results/exec-time-table.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -277,6 +277,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -658,11 +659,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1056,9 +1055,14 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
